--- a/build/output/StructureDefinition-plannet-OrganizationAffiliation.xlsx
+++ b/build/output/StructureDefinition-plannet-OrganizationAffiliation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="269">
   <si>
     <t>Path</t>
   </si>
@@ -563,6 +563,9 @@
   </si>
   <si>
     <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>.statusCode</t>
@@ -3095,7 +3098,7 @@
         <v>38</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>38</v>
@@ -3149,15 +3152,15 @@
         <v>58</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3183,14 +3186,14 @@
         <v>157</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>38</v>
@@ -3239,7 +3242,7 @@
         <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>39</v>
@@ -3254,15 +3257,15 @@
         <v>58</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3285,13 +3288,13 @@
         <v>47</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3342,7 +3345,7 @@
         <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>39</v>
@@ -3357,7 +3360,7 @@
         <v>58</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
@@ -3365,7 +3368,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3388,13 +3391,13 @@
         <v>47</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3445,7 +3448,7 @@
         <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>39</v>
@@ -3460,7 +3463,7 @@
         <v>58</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>38</v>
@@ -3468,7 +3471,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3491,13 +3494,13 @@
         <v>47</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3548,7 +3551,7 @@
         <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>39</v>
@@ -3571,7 +3574,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3597,10 +3600,10 @@
         <v>132</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3627,13 +3630,13 @@
         <v>38</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>38</v>
@@ -3651,7 +3654,7 @@
         <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>39</v>
@@ -3666,7 +3669,7 @@
         <v>58</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>38</v>
@@ -3674,7 +3677,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3700,10 +3703,10 @@
         <v>132</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3733,10 +3736,10 @@
         <v>70</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>38</v>
@@ -3754,7 +3757,7 @@
         <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>39</v>
@@ -3769,7 +3772,7 @@
         <v>58</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
@@ -3777,7 +3780,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3800,13 +3803,13 @@
         <v>47</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3857,7 +3860,7 @@
         <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>39</v>
@@ -3872,15 +3875,15 @@
         <v>58</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3903,13 +3906,13 @@
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3960,7 +3963,7 @@
         <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>39</v>
@@ -3975,7 +3978,7 @@
         <v>58</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
@@ -3983,7 +3986,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4006,17 +4009,17 @@
         <v>47</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>38</v>
@@ -4065,7 +4068,7 @@
         <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>39</v>
@@ -4080,7 +4083,7 @@
         <v>58</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
@@ -4088,7 +4091,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4191,7 +4194,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4296,7 +4299,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4322,10 +4325,10 @@
         <v>66</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4355,10 +4358,10 @@
         <v>126</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>38</v>
@@ -4376,7 +4379,7 @@
         <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>39</v>
@@ -4385,13 +4388,13 @@
         <v>46</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
@@ -4399,7 +4402,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4425,16 +4428,16 @@
         <v>48</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>38</v>
@@ -4483,7 +4486,7 @@
         <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>39</v>
@@ -4498,7 +4501,7 @@
         <v>58</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
@@ -4506,7 +4509,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4532,16 +4535,16 @@
         <v>66</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>38</v>
@@ -4569,10 +4572,10 @@
         <v>126</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>38</v>
@@ -4590,7 +4593,7 @@
         <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>39</v>
@@ -4605,7 +4608,7 @@
         <v>58</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>38</v>
@@ -4613,7 +4616,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4636,16 +4639,16 @@
         <v>47</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -4695,7 +4698,7 @@
         <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>39</v>
@@ -4718,7 +4721,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4744,10 +4747,10 @@
         <v>157</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4798,7 +4801,7 @@
         <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>39</v>
@@ -4813,7 +4816,7 @@
         <v>58</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>38</v>
@@ -4821,7 +4824,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4844,13 +4847,13 @@
         <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4901,7 +4904,7 @@
         <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>39</v>
